--- a/Configs/GameConfig/Datas/__enums__.xlsx
+++ b/Configs/GameConfig/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpace\Lan-TEngine\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F16681-F4CF-4265-BA83-D294E72839B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4890042-72D7-42E6-B837-0C3D82B81DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -235,39 +235,6 @@
   </si>
   <si>
     <t>自己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Battle.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AreaType</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不允许</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标P2P</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -352,11 +319,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -674,13 +641,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -856,7 +823,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C13" t="b">
@@ -865,52 +832,52 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C16" t="b">
@@ -919,116 +886,76 @@
       <c r="D16" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H17" s="4" t="s">
+    <row r="17" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H18" s="4" t="s">
+    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>59</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H19" s="4" t="s">
+    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H20" s="4" t="s">
+    <row r="20" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>63</v>
       </c>
       <c r="J20">
         <v>4</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
